--- a/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/POHEMA/2.0.8/POHEMA accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/POHEMA/2.0.8/POHEMA accreditamento-checklist_V8.2.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u01113\Desktop\GatewayInLocale\A1#111GRUPPOGPI00\GPI_SPA\POHEMA\2.0.8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85763956-DCBB-4C90-9BE8-D4ADADDCAA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27CE713-6EFE-4940-97FC-8EB0F7F6484E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="492">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2953,7 +2953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3075,6 +3075,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -3092,31 +3108,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5551,7 +5542,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D197" sqref="D197"/>
+      <selection pane="bottomRight" activeCell="R196" sqref="R196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -5592,12 +5583,12 @@
       <c r="W1" s="14"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="52"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -5618,14 +5609,14 @@
       <c r="W2" s="14"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="54" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="52"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -5646,12 +5637,12 @@
       <c r="W3" s="14"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="54" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="4"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -5673,12 +5664,12 @@
       <c r="W4" s="14"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="52"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -5699,8 +5690,8 @@
       <c r="W5" s="14"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="15"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -6024,7 +6015,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A15" s="63">
+      <c r="A15" s="23">
         <v>32</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -6036,7 +6027,7 @@
       <c r="D15" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="24" t="s">
         <v>65</v>
       </c>
       <c r="F15" s="26">
@@ -6066,8 +6057,12 @@
       <c r="P15" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
+      <c r="Q15" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="R15" s="27" t="s">
+        <v>93</v>
+      </c>
       <c r="S15" s="32" t="s">
         <v>274</v>
       </c>
@@ -6075,7 +6070,7 @@
         <v>275</v>
       </c>
       <c r="U15" s="28"/>
-      <c r="V15" s="57" t="s">
+      <c r="V15" s="45" t="s">
         <v>480</v>
       </c>
       <c r="W15" s="27" t="s">
@@ -6342,7 +6337,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A23" s="63">
+      <c r="A23" s="23">
         <v>40</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -6354,7 +6349,7 @@
       <c r="D23" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="24" t="s">
         <v>84</v>
       </c>
       <c r="F23" s="26">
@@ -6366,7 +6361,7 @@
       <c r="H23" s="26" t="s">
         <v>481</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="I23" s="31" t="s">
         <v>479</v>
       </c>
       <c r="J23" s="27" t="s">
@@ -6384,8 +6379,12 @@
       <c r="P23" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
+      <c r="Q23" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="R23" s="27" t="s">
+        <v>93</v>
+      </c>
       <c r="S23" s="32" t="s">
         <v>274</v>
       </c>
@@ -6393,7 +6392,7 @@
         <v>275</v>
       </c>
       <c r="U23" s="28"/>
-      <c r="V23" s="57" t="s">
+      <c r="V23" s="45" t="s">
         <v>483</v>
       </c>
       <c r="W23" s="27" t="s">
@@ -6680,22 +6679,34 @@
       <c r="D31" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="58" t="s">
+      <c r="E31" s="24" t="s">
         <v>92</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
       <c r="I31" s="31"/>
-      <c r="J31" s="27"/>
+      <c r="J31" s="27" t="s">
+        <v>93</v>
+      </c>
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="N31" s="27" t="s">
+        <v>266</v>
+      </c>
       <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
+      <c r="P31" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q31" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="R31" s="27" t="s">
+        <v>93</v>
+      </c>
       <c r="S31" s="32" t="s">
         <v>98</v>
       </c>
@@ -9835,7 +9846,7 @@
       <c r="D116" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="E116" s="58" t="s">
+      <c r="E116" s="24" t="s">
         <v>265</v>
       </c>
       <c r="F116" s="26"/>
@@ -9876,13 +9887,13 @@
       <c r="D117" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="E117" s="58" t="s">
+      <c r="E117" s="24" t="s">
         <v>268</v>
       </c>
       <c r="F117" s="26"/>
       <c r="G117" s="26"/>
       <c r="H117" s="26"/>
-      <c r="I117" s="59"/>
+      <c r="I117" s="31"/>
       <c r="J117" s="27" t="s">
         <v>266</v>
       </c>
@@ -9905,7 +9916,7 @@
       </c>
     </row>
     <row r="118" spans="1:23" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A118" s="63">
+      <c r="A118" s="23">
         <v>155</v>
       </c>
       <c r="B118" s="23" t="s">
@@ -9917,7 +9928,7 @@
       <c r="D118" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="E118" s="58" t="s">
+      <c r="E118" s="24" t="s">
         <v>270</v>
       </c>
       <c r="F118" s="26">
@@ -9929,7 +9940,7 @@
       <c r="H118" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="I118" s="59" t="s">
+      <c r="I118" s="31" t="s">
         <v>273</v>
       </c>
       <c r="J118" s="27" t="s">
@@ -9947,8 +9958,12 @@
       <c r="P118" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="Q118" s="27"/>
-      <c r="R118" s="27"/>
+      <c r="Q118" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="R118" s="27" t="s">
+        <v>93</v>
+      </c>
       <c r="S118" s="32" t="s">
         <v>274</v>
       </c>
@@ -9964,7 +9979,7 @@
       </c>
     </row>
     <row r="119" spans="1:23" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A119" s="63">
+      <c r="A119" s="23">
         <v>156</v>
       </c>
       <c r="B119" s="23" t="s">
@@ -9976,7 +9991,7 @@
       <c r="D119" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="E119" s="58" t="s">
+      <c r="E119" s="24" t="s">
         <v>278</v>
       </c>
       <c r="F119" s="26">
@@ -9988,7 +10003,7 @@
       <c r="H119" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="I119" s="59" t="s">
+      <c r="I119" s="31" t="s">
         <v>281</v>
       </c>
       <c r="J119" s="27" t="s">
@@ -10006,8 +10021,12 @@
       <c r="P119" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="Q119" s="27"/>
-      <c r="R119" s="27"/>
+      <c r="Q119" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="R119" s="27" t="s">
+        <v>93</v>
+      </c>
       <c r="S119" s="32" t="s">
         <v>274</v>
       </c>
@@ -10035,13 +10054,13 @@
       <c r="D120" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="E120" s="58" t="s">
+      <c r="E120" s="24" t="s">
         <v>283</v>
       </c>
       <c r="F120" s="26"/>
       <c r="G120" s="26"/>
       <c r="H120" s="26"/>
-      <c r="I120" s="59"/>
+      <c r="I120" s="31"/>
       <c r="J120" s="27" t="s">
         <v>266</v>
       </c>
@@ -10064,7 +10083,7 @@
       </c>
     </row>
     <row r="121" spans="1:23" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A121" s="63">
+      <c r="A121" s="23">
         <v>160</v>
       </c>
       <c r="B121" s="23" t="s">
@@ -10076,7 +10095,7 @@
       <c r="D121" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="E121" s="58" t="s">
+      <c r="E121" s="24" t="s">
         <v>285</v>
       </c>
       <c r="F121" s="26">
@@ -10088,7 +10107,7 @@
       <c r="H121" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="I121" s="59" t="s">
+      <c r="I121" s="31" t="s">
         <v>288</v>
       </c>
       <c r="J121" s="27" t="s">
@@ -10106,8 +10125,12 @@
       <c r="P121" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="Q121" s="27"/>
-      <c r="R121" s="27"/>
+      <c r="Q121" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="R121" s="27" t="s">
+        <v>93</v>
+      </c>
       <c r="S121" s="32" t="s">
         <v>274</v>
       </c>
@@ -10123,7 +10146,7 @@
       </c>
     </row>
     <row r="122" spans="1:23" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A122" s="63">
+      <c r="A122" s="23">
         <v>161</v>
       </c>
       <c r="B122" s="23" t="s">
@@ -10135,7 +10158,7 @@
       <c r="D122" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="E122" s="58" t="s">
+      <c r="E122" s="24" t="s">
         <v>291</v>
       </c>
       <c r="F122" s="26">
@@ -10147,7 +10170,7 @@
       <c r="H122" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="I122" s="59" t="s">
+      <c r="I122" s="31" t="s">
         <v>294</v>
       </c>
       <c r="J122" s="27" t="s">
@@ -10165,8 +10188,12 @@
       <c r="P122" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="Q122" s="27"/>
-      <c r="R122" s="27"/>
+      <c r="Q122" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="R122" s="27" t="s">
+        <v>93</v>
+      </c>
       <c r="S122" s="32" t="s">
         <v>274</v>
       </c>
@@ -10194,13 +10221,13 @@
       <c r="D123" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="E123" s="58" t="s">
+      <c r="E123" s="24" t="s">
         <v>297</v>
       </c>
       <c r="F123" s="26"/>
       <c r="G123" s="26"/>
       <c r="H123" s="26"/>
-      <c r="I123" s="59"/>
+      <c r="I123" s="31"/>
       <c r="J123" s="27" t="s">
         <v>266</v>
       </c>
@@ -10235,13 +10262,13 @@
       <c r="D124" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="E124" s="58" t="s">
+      <c r="E124" s="24" t="s">
         <v>299</v>
       </c>
       <c r="F124" s="26"/>
       <c r="G124" s="26"/>
       <c r="H124" s="26"/>
-      <c r="I124" s="59"/>
+      <c r="I124" s="31"/>
       <c r="J124" s="27" t="s">
         <v>266</v>
       </c>
@@ -10276,13 +10303,13 @@
       <c r="D125" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="E125" s="58" t="s">
+      <c r="E125" s="24" t="s">
         <v>301</v>
       </c>
       <c r="F125" s="26"/>
       <c r="G125" s="26"/>
       <c r="H125" s="26"/>
-      <c r="I125" s="59"/>
+      <c r="I125" s="31"/>
       <c r="J125" s="27" t="s">
         <v>266</v>
       </c>
@@ -10317,13 +10344,13 @@
       <c r="D126" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="E126" s="58" t="s">
+      <c r="E126" s="24" t="s">
         <v>303</v>
       </c>
       <c r="F126" s="26"/>
       <c r="G126" s="26"/>
       <c r="H126" s="26"/>
-      <c r="I126" s="59"/>
+      <c r="I126" s="31"/>
       <c r="J126" s="27" t="s">
         <v>266</v>
       </c>
@@ -10358,13 +10385,13 @@
       <c r="D127" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="E127" s="58" t="s">
+      <c r="E127" s="24" t="s">
         <v>305</v>
       </c>
       <c r="F127" s="26"/>
       <c r="G127" s="26"/>
       <c r="H127" s="26"/>
-      <c r="I127" s="59"/>
+      <c r="I127" s="31"/>
       <c r="J127" s="27" t="s">
         <v>266</v>
       </c>
@@ -10399,13 +10426,13 @@
       <c r="D128" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="E128" s="58" t="s">
+      <c r="E128" s="24" t="s">
         <v>307</v>
       </c>
       <c r="F128" s="26"/>
       <c r="G128" s="26"/>
       <c r="H128" s="26"/>
-      <c r="I128" s="59"/>
+      <c r="I128" s="31"/>
       <c r="J128" s="27" t="s">
         <v>266</v>
       </c>
@@ -10440,13 +10467,13 @@
       <c r="D129" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="E129" s="58" t="s">
+      <c r="E129" s="24" t="s">
         <v>309</v>
       </c>
       <c r="F129" s="26"/>
       <c r="G129" s="26"/>
       <c r="H129" s="26"/>
-      <c r="I129" s="59"/>
+      <c r="I129" s="31"/>
       <c r="J129" s="27" t="s">
         <v>266</v>
       </c>
@@ -10469,7 +10496,7 @@
       </c>
     </row>
     <row r="130" spans="1:23" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A130" s="63">
+      <c r="A130" s="23">
         <v>169</v>
       </c>
       <c r="B130" s="23" t="s">
@@ -10481,7 +10508,7 @@
       <c r="D130" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="E130" s="58" t="s">
+      <c r="E130" s="24" t="s">
         <v>311</v>
       </c>
       <c r="F130" s="26">
@@ -10493,7 +10520,7 @@
       <c r="H130" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="I130" s="59" t="s">
+      <c r="I130" s="31" t="s">
         <v>314</v>
       </c>
       <c r="J130" s="27" t="s">
@@ -10511,8 +10538,12 @@
       <c r="P130" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="Q130" s="27"/>
-      <c r="R130" s="27"/>
+      <c r="Q130" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="R130" s="27" t="s">
+        <v>93</v>
+      </c>
       <c r="S130" s="27" t="s">
         <v>274</v>
       </c>
@@ -10546,7 +10577,7 @@
       <c r="F131" s="26"/>
       <c r="G131" s="26"/>
       <c r="H131" s="26"/>
-      <c r="I131" s="59"/>
+      <c r="I131" s="31"/>
       <c r="J131" s="27"/>
       <c r="K131" s="27"/>
       <c r="L131" s="27"/>
@@ -10583,7 +10614,7 @@
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
       <c r="H132" s="26"/>
-      <c r="I132" s="59"/>
+      <c r="I132" s="31"/>
       <c r="J132" s="27"/>
       <c r="K132" s="27"/>
       <c r="L132" s="27"/>
@@ -10620,7 +10651,7 @@
       <c r="F133" s="26"/>
       <c r="G133" s="26"/>
       <c r="H133" s="26"/>
-      <c r="I133" s="59"/>
+      <c r="I133" s="31"/>
       <c r="J133" s="27"/>
       <c r="K133" s="27"/>
       <c r="L133" s="27"/>
@@ -10657,7 +10688,7 @@
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
       <c r="H134" s="26"/>
-      <c r="I134" s="59"/>
+      <c r="I134" s="31"/>
       <c r="J134" s="27"/>
       <c r="K134" s="27"/>
       <c r="L134" s="27"/>
@@ -10694,7 +10725,7 @@
       <c r="F135" s="26"/>
       <c r="G135" s="26"/>
       <c r="H135" s="26"/>
-      <c r="I135" s="59"/>
+      <c r="I135" s="31"/>
       <c r="J135" s="27"/>
       <c r="K135" s="27"/>
       <c r="L135" s="27"/>
@@ -10731,7 +10762,7 @@
       <c r="F136" s="26"/>
       <c r="G136" s="26"/>
       <c r="H136" s="26"/>
-      <c r="I136" s="59"/>
+      <c r="I136" s="31"/>
       <c r="J136" s="27"/>
       <c r="K136" s="27"/>
       <c r="L136" s="27"/>
@@ -10768,7 +10799,7 @@
       <c r="F137" s="26"/>
       <c r="G137" s="26"/>
       <c r="H137" s="26"/>
-      <c r="I137" s="59"/>
+      <c r="I137" s="31"/>
       <c r="J137" s="27"/>
       <c r="K137" s="27"/>
       <c r="L137" s="27"/>
@@ -10805,7 +10836,7 @@
       <c r="F138" s="26"/>
       <c r="G138" s="26"/>
       <c r="H138" s="26"/>
-      <c r="I138" s="59"/>
+      <c r="I138" s="31"/>
       <c r="J138" s="27"/>
       <c r="K138" s="27"/>
       <c r="L138" s="27"/>
@@ -10842,7 +10873,7 @@
       <c r="F139" s="26"/>
       <c r="G139" s="26"/>
       <c r="H139" s="26"/>
-      <c r="I139" s="59"/>
+      <c r="I139" s="31"/>
       <c r="J139" s="27"/>
       <c r="K139" s="27"/>
       <c r="L139" s="27"/>
@@ -10879,7 +10910,7 @@
       <c r="F140" s="26"/>
       <c r="G140" s="26"/>
       <c r="H140" s="26"/>
-      <c r="I140" s="59"/>
+      <c r="I140" s="31"/>
       <c r="J140" s="27"/>
       <c r="K140" s="27"/>
       <c r="L140" s="27"/>
@@ -10916,7 +10947,7 @@
       <c r="F141" s="26"/>
       <c r="G141" s="26"/>
       <c r="H141" s="26"/>
-      <c r="I141" s="59"/>
+      <c r="I141" s="31"/>
       <c r="J141" s="27"/>
       <c r="K141" s="27"/>
       <c r="L141" s="27"/>
@@ -10953,7 +10984,7 @@
       <c r="F142" s="26"/>
       <c r="G142" s="26"/>
       <c r="H142" s="26"/>
-      <c r="I142" s="59"/>
+      <c r="I142" s="31"/>
       <c r="J142" s="27"/>
       <c r="K142" s="27"/>
       <c r="L142" s="27"/>
@@ -10990,7 +11021,7 @@
       <c r="F143" s="26"/>
       <c r="G143" s="26"/>
       <c r="H143" s="26"/>
-      <c r="I143" s="59"/>
+      <c r="I143" s="31"/>
       <c r="J143" s="27"/>
       <c r="K143" s="27"/>
       <c r="L143" s="27"/>
@@ -11027,7 +11058,7 @@
       <c r="F144" s="26"/>
       <c r="G144" s="26"/>
       <c r="H144" s="26"/>
-      <c r="I144" s="59"/>
+      <c r="I144" s="31"/>
       <c r="J144" s="27"/>
       <c r="K144" s="27"/>
       <c r="L144" s="27"/>
@@ -11064,7 +11095,7 @@
       <c r="F145" s="26"/>
       <c r="G145" s="26"/>
       <c r="H145" s="26"/>
-      <c r="I145" s="59"/>
+      <c r="I145" s="31"/>
       <c r="J145" s="27"/>
       <c r="K145" s="27"/>
       <c r="L145" s="27"/>
@@ -11101,7 +11132,7 @@
       <c r="F146" s="26"/>
       <c r="G146" s="26"/>
       <c r="H146" s="26"/>
-      <c r="I146" s="59"/>
+      <c r="I146" s="31"/>
       <c r="J146" s="27"/>
       <c r="K146" s="27"/>
       <c r="L146" s="27"/>
@@ -11138,7 +11169,7 @@
       <c r="F147" s="26"/>
       <c r="G147" s="26"/>
       <c r="H147" s="26"/>
-      <c r="I147" s="59"/>
+      <c r="I147" s="31"/>
       <c r="J147" s="27"/>
       <c r="K147" s="27"/>
       <c r="L147" s="27"/>
@@ -11175,7 +11206,7 @@
       <c r="F148" s="26"/>
       <c r="G148" s="26"/>
       <c r="H148" s="26"/>
-      <c r="I148" s="59"/>
+      <c r="I148" s="31"/>
       <c r="J148" s="27"/>
       <c r="K148" s="27"/>
       <c r="L148" s="27"/>
@@ -11212,7 +11243,7 @@
       <c r="F149" s="26"/>
       <c r="G149" s="26"/>
       <c r="H149" s="26"/>
-      <c r="I149" s="59"/>
+      <c r="I149" s="31"/>
       <c r="J149" s="27"/>
       <c r="K149" s="27"/>
       <c r="L149" s="27"/>
@@ -11249,7 +11280,7 @@
       <c r="F150" s="26"/>
       <c r="G150" s="26"/>
       <c r="H150" s="26"/>
-      <c r="I150" s="59"/>
+      <c r="I150" s="31"/>
       <c r="J150" s="27"/>
       <c r="K150" s="27"/>
       <c r="L150" s="27"/>
@@ -11286,7 +11317,7 @@
       <c r="F151" s="26"/>
       <c r="G151" s="26"/>
       <c r="H151" s="26"/>
-      <c r="I151" s="59"/>
+      <c r="I151" s="31"/>
       <c r="J151" s="27"/>
       <c r="K151" s="27"/>
       <c r="L151" s="27"/>
@@ -11323,7 +11354,7 @@
       <c r="F152" s="26"/>
       <c r="G152" s="26"/>
       <c r="H152" s="26"/>
-      <c r="I152" s="59"/>
+      <c r="I152" s="31"/>
       <c r="J152" s="27"/>
       <c r="K152" s="27"/>
       <c r="L152" s="27"/>
@@ -11360,7 +11391,7 @@
       <c r="F153" s="26"/>
       <c r="G153" s="26"/>
       <c r="H153" s="26"/>
-      <c r="I153" s="59"/>
+      <c r="I153" s="31"/>
       <c r="J153" s="27"/>
       <c r="K153" s="27"/>
       <c r="L153" s="27"/>
@@ -11397,7 +11428,7 @@
       <c r="F154" s="26"/>
       <c r="G154" s="26"/>
       <c r="H154" s="26"/>
-      <c r="I154" s="59"/>
+      <c r="I154" s="31"/>
       <c r="J154" s="27"/>
       <c r="K154" s="27"/>
       <c r="L154" s="27"/>
@@ -11434,7 +11465,7 @@
       <c r="F155" s="26"/>
       <c r="G155" s="26"/>
       <c r="H155" s="26"/>
-      <c r="I155" s="59"/>
+      <c r="I155" s="31"/>
       <c r="J155" s="27"/>
       <c r="K155" s="27"/>
       <c r="L155" s="27"/>
@@ -11471,7 +11502,7 @@
       <c r="F156" s="26"/>
       <c r="G156" s="26"/>
       <c r="H156" s="26"/>
-      <c r="I156" s="59"/>
+      <c r="I156" s="31"/>
       <c r="J156" s="27"/>
       <c r="K156" s="27"/>
       <c r="L156" s="27"/>
@@ -11508,7 +11539,7 @@
       <c r="F157" s="26"/>
       <c r="G157" s="26"/>
       <c r="H157" s="26"/>
-      <c r="I157" s="59"/>
+      <c r="I157" s="31"/>
       <c r="J157" s="27"/>
       <c r="K157" s="27"/>
       <c r="L157" s="27"/>
@@ -11545,7 +11576,7 @@
       <c r="F158" s="26"/>
       <c r="G158" s="26"/>
       <c r="H158" s="26"/>
-      <c r="I158" s="59"/>
+      <c r="I158" s="31"/>
       <c r="J158" s="27"/>
       <c r="K158" s="27"/>
       <c r="L158" s="27"/>
@@ -11582,7 +11613,7 @@
       <c r="F159" s="26"/>
       <c r="G159" s="26"/>
       <c r="H159" s="26"/>
-      <c r="I159" s="59"/>
+      <c r="I159" s="31"/>
       <c r="J159" s="27"/>
       <c r="K159" s="27"/>
       <c r="L159" s="27"/>
@@ -11619,7 +11650,7 @@
       <c r="F160" s="26"/>
       <c r="G160" s="26"/>
       <c r="H160" s="26"/>
-      <c r="I160" s="59"/>
+      <c r="I160" s="31"/>
       <c r="J160" s="27"/>
       <c r="K160" s="27"/>
       <c r="L160" s="27"/>
@@ -11656,7 +11687,7 @@
       <c r="F161" s="26"/>
       <c r="G161" s="26"/>
       <c r="H161" s="26"/>
-      <c r="I161" s="59"/>
+      <c r="I161" s="31"/>
       <c r="J161" s="27"/>
       <c r="K161" s="27"/>
       <c r="L161" s="27"/>
@@ -11693,7 +11724,7 @@
       <c r="F162" s="26"/>
       <c r="G162" s="26"/>
       <c r="H162" s="26"/>
-      <c r="I162" s="59"/>
+      <c r="I162" s="31"/>
       <c r="J162" s="27"/>
       <c r="K162" s="27"/>
       <c r="L162" s="27"/>
@@ -11730,7 +11761,7 @@
       <c r="F163" s="26"/>
       <c r="G163" s="26"/>
       <c r="H163" s="26"/>
-      <c r="I163" s="59"/>
+      <c r="I163" s="31"/>
       <c r="J163" s="27"/>
       <c r="K163" s="27"/>
       <c r="L163" s="27"/>
@@ -11767,7 +11798,7 @@
       <c r="F164" s="26"/>
       <c r="G164" s="26"/>
       <c r="H164" s="26"/>
-      <c r="I164" s="59"/>
+      <c r="I164" s="31"/>
       <c r="J164" s="27"/>
       <c r="K164" s="27"/>
       <c r="L164" s="27"/>
@@ -11804,7 +11835,7 @@
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
       <c r="H165" s="26"/>
-      <c r="I165" s="59"/>
+      <c r="I165" s="31"/>
       <c r="J165" s="27"/>
       <c r="K165" s="27"/>
       <c r="L165" s="27"/>
@@ -11823,7 +11854,7 @@
       </c>
     </row>
     <row r="166" spans="1:23" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A166" s="63">
+      <c r="A166" s="23">
         <v>448</v>
       </c>
       <c r="B166" s="23" t="s">
@@ -11835,7 +11866,7 @@
       <c r="D166" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="E166" s="58" t="s">
+      <c r="E166" s="24" t="s">
         <v>388</v>
       </c>
       <c r="F166" s="26">
@@ -11844,10 +11875,10 @@
       <c r="G166" s="26" t="s">
         <v>490</v>
       </c>
-      <c r="H166" s="61" t="s">
+      <c r="H166" s="47" t="s">
         <v>489</v>
       </c>
-      <c r="I166" s="62" t="s">
+      <c r="I166" s="48" t="s">
         <v>491</v>
       </c>
       <c r="J166" s="27" t="s">
@@ -11884,13 +11915,13 @@
       <c r="D167" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="E167" s="58" t="s">
+      <c r="E167" s="24" t="s">
         <v>390</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
       <c r="H167" s="26"/>
-      <c r="I167" s="59"/>
+      <c r="I167" s="31"/>
       <c r="J167" s="27" t="s">
         <v>266</v>
       </c>
@@ -12295,7 +12326,7 @@
       <c r="D178" s="23" t="s">
         <v>411</v>
       </c>
-      <c r="E178" s="58" t="s">
+      <c r="E178" s="24" t="s">
         <v>412</v>
       </c>
       <c r="F178" s="23"/>
@@ -12546,7 +12577,7 @@
       </c>
     </row>
     <row r="185" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A185" s="63">
+      <c r="A185" s="23">
         <v>468</v>
       </c>
       <c r="B185" s="23" t="s">
@@ -12558,7 +12589,7 @@
       <c r="D185" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="E185" s="58" t="s">
+      <c r="E185" s="24" t="s">
         <v>426</v>
       </c>
       <c r="F185" s="26">
@@ -12588,8 +12619,12 @@
       <c r="P185" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="Q185" s="27"/>
-      <c r="R185" s="27"/>
+      <c r="Q185" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="R185" s="27" t="s">
+        <v>93</v>
+      </c>
       <c r="S185" s="27" t="s">
         <v>274</v>
       </c>
@@ -12597,7 +12632,7 @@
         <v>275</v>
       </c>
       <c r="U185" s="23"/>
-      <c r="V185" s="60" t="s">
+      <c r="V185" s="46" t="s">
         <v>488</v>
       </c>
       <c r="W185" s="23" t="s">
@@ -12839,7 +12874,7 @@
       <c r="D192" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="E192" s="58" t="s">
+      <c r="E192" s="24" t="s">
         <v>440</v>
       </c>
       <c r="F192" s="26"/>

--- a/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/POHEMA/2.0.8/POHEMA accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/POHEMA/2.0.8/POHEMA accreditamento-checklist_V8.2.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u01113\Desktop\GatewayInLocale\A1#111GRUPPOGPI00\GPI_SPA\POHEMA\2.0.8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27CE713-6EFE-4940-97FC-8EB0F7F6484E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFBC23D-5DAB-4A9F-894A-C7F16FE16386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="496">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2471,13 +2471,25 @@
     <t>L'applicativo gestisce i livelli di riservatezza previsti. Per il caso di test è stato forzata la rimozione del livello di riservatezza</t>
   </si>
   <si>
-    <t>219680aa40c96a214ad3c8694a26a468</t>
-  </si>
-  <si>
-    <t>2025-07-14T09:48:46.042Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.206.21485.163.7676eff8522f57fac61cc34fae7b85485e393d01885ef875a0a288b84017814c.5b968d1a3b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>15aaadda3e90a22b518650f4489382cd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.206.21487.171.7676eff8522f57fac61cc34fae7b85485e393d01885ef875a0a288b84017814c.0795cc33c6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-22T08:15:16.847Z</t>
+  </si>
+  <si>
+    <t>a1541611bbe2071883d5741c466252c8</t>
+  </si>
+  <si>
+    <t>2025-07-22T08:30:23.157Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.206.21485.163.7676eff8522f57fac61cc34fae7b85485e393d01885ef875a0a288b84017814c.3d56a94b19^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>L'applicativo gestisce correttamente le informazioni. Per il test è stata rimossa manualmente una sezione nel cda2.</t>
   </si>
 </sst>
 </file>
@@ -2590,7 +2602,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2900,21 +2912,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -2953,7 +2950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3052,27 +3049,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5542,7 +5536,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="R196" sqref="R196"/>
+      <selection pane="bottomRight" activeCell="K201" sqref="K201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -5583,12 +5577,12 @@
       <c r="W1" s="14"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="51"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -5609,14 +5603,14 @@
       <c r="W2" s="14"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="52"/>
+      <c r="D3" s="51"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -5637,12 +5631,12 @@
       <c r="W3" s="14"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="60" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="4"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -5664,12 +5658,12 @@
       <c r="W4" s="14"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="52"/>
+      <c r="D5" s="51"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -5690,8 +5684,8 @@
       <c r="W5" s="14"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="15"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -6070,7 +6064,7 @@
         <v>275</v>
       </c>
       <c r="U15" s="28"/>
-      <c r="V15" s="45" t="s">
+      <c r="V15" s="44" t="s">
         <v>480</v>
       </c>
       <c r="W15" s="27" t="s">
@@ -6392,7 +6386,7 @@
         <v>275</v>
       </c>
       <c r="U23" s="28"/>
-      <c r="V23" s="45" t="s">
+      <c r="V23" s="44" t="s">
         <v>483</v>
       </c>
       <c r="W23" s="27" t="s">
@@ -10065,7 +10059,7 @@
         <v>266</v>
       </c>
       <c r="K120" s="27" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L120" s="27"/>
       <c r="M120" s="27"/>
@@ -10265,27 +10259,49 @@
       <c r="E124" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="F124" s="26"/>
-      <c r="G124" s="26"/>
-      <c r="H124" s="26"/>
-      <c r="I124" s="31"/>
+      <c r="F124" s="26">
+        <v>45860</v>
+      </c>
+      <c r="G124" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="H124" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="I124" s="31" t="s">
+        <v>494</v>
+      </c>
       <c r="J124" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="K124" s="27"/>
+      <c r="L124" s="27"/>
+      <c r="M124" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="K124" s="35" t="s">
-        <v>442</v>
-      </c>
-      <c r="L124" s="27"/>
-      <c r="M124" s="27"/>
-      <c r="N124" s="27"/>
+      <c r="N124" s="27" t="s">
+        <v>266</v>
+      </c>
       <c r="O124" s="27"/>
-      <c r="P124" s="27"/>
-      <c r="Q124" s="27"/>
-      <c r="R124" s="27"/>
-      <c r="S124" s="27"/>
-      <c r="T124" s="27"/>
+      <c r="P124" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q124" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="R124" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="S124" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="T124" s="27" t="s">
+        <v>275</v>
+      </c>
       <c r="U124" s="28"/>
-      <c r="V124" s="29"/>
+      <c r="V124" s="29" t="s">
+        <v>495</v>
+      </c>
       <c r="W124" s="27" t="s">
         <v>53</v>
       </c>
@@ -10354,7 +10370,7 @@
       <c r="J126" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="K126" s="36" t="s">
+      <c r="K126" s="35" t="s">
         <v>442</v>
       </c>
       <c r="L126" s="27"/>
@@ -10395,7 +10411,7 @@
       <c r="J127" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="K127" s="36" t="s">
+      <c r="K127" s="35" t="s">
         <v>442</v>
       </c>
       <c r="L127" s="27"/>
@@ -10436,7 +10452,7 @@
       <c r="J128" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="K128" s="36" t="s">
+      <c r="K128" s="35" t="s">
         <v>442</v>
       </c>
       <c r="L128" s="27"/>
@@ -11870,16 +11886,16 @@
         <v>388</v>
       </c>
       <c r="F166" s="26">
-        <v>45852</v>
+        <v>45860</v>
       </c>
       <c r="G166" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="H166" s="46" t="s">
+        <v>489</v>
+      </c>
+      <c r="I166" s="47" t="s">
         <v>490</v>
-      </c>
-      <c r="H166" s="47" t="s">
-        <v>489</v>
-      </c>
-      <c r="I166" s="48" t="s">
-        <v>491</v>
       </c>
       <c r="J166" s="27" t="s">
         <v>93</v>
@@ -12632,7 +12648,7 @@
         <v>275</v>
       </c>
       <c r="U185" s="23"/>
-      <c r="V185" s="46" t="s">
+      <c r="V185" s="45" t="s">
         <v>488</v>
       </c>
       <c r="W185" s="23" t="s">
@@ -16977,42 +16993,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="36" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>448</v>
       </c>
     </row>
@@ -18035,162 +18051,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>449</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>450</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>451</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="39" t="s">
         <v>452</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="42" t="s">
         <v>457</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="42" t="s">
         <v>459</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="43" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="42" t="s">
         <v>461</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="42" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="43" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.5">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="42" t="s">
         <v>465</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="43" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.5">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="43" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.5">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="42" t="s">
         <v>469</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="43" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="43.5">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="43" t="s">
         <v>472</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="42" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="42" t="s">
         <v>474</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="43" t="s">
         <v>475</v>
       </c>
     </row>
